--- a/main/bin/Debug/ArquivosDados/BuscaEspecialidade.xlsx
+++ b/main/bin/Debug/ArquivosDados/BuscaEspecialidade.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E3CB351C-D04E-4C7C-8F31-0788FB513934}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DBB51872-0E13-4C03-BADB-E318FA9F6AE3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1167,7 +1167,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">

--- a/main/bin/Debug/ArquivosDados/BuscaEspecialidade.xlsx
+++ b/main/bin/Debug/ArquivosDados/BuscaEspecialidade.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2E076F10-3E52-47C7-8246-4B87514924E3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E3CB351C-D04E-4C7C-8F31-0788FB513934}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="259">
   <si>
     <t>Tipo</t>
   </si>
@@ -188,6 +188,603 @@
   </si>
   <si>
     <t>CARE PLUS</t>
+  </si>
+  <si>
+    <t>CASSEMBRAPA</t>
+  </si>
+  <si>
+    <t>CASSI BANCO DO BRASIL</t>
+  </si>
+  <si>
+    <t>CASU</t>
+  </si>
+  <si>
+    <t>CELGMED</t>
+  </si>
+  <si>
+    <t>CEMIG SAÚDE</t>
+  </si>
+  <si>
+    <t>CENTRO CLÍNICO GAÚCHO</t>
+  </si>
+  <si>
+    <t>CIA. VALE DO RIO DOCE</t>
+  </si>
+  <si>
+    <t>CÍRCULO SAÚDE</t>
+  </si>
+  <si>
+    <t>CLINIPAM</t>
+  </si>
+  <si>
+    <t>CODEVASF</t>
+  </si>
+  <si>
+    <t>CONAB</t>
+  </si>
+  <si>
+    <t>CONCARD</t>
+  </si>
+  <si>
+    <t>COOPMIL</t>
+  </si>
+  <si>
+    <t>COPASA</t>
+  </si>
+  <si>
+    <t>CORREIOS</t>
+  </si>
+  <si>
+    <t>DENTGOLD</t>
+  </si>
+  <si>
+    <t>DIX</t>
+  </si>
+  <si>
+    <t>ECONLIFE</t>
+  </si>
+  <si>
+    <t>ECONOMUS</t>
+  </si>
+  <si>
+    <t>ELETROS-SAÚDE</t>
+  </si>
+  <si>
+    <t>EMBRATEL</t>
+  </si>
+  <si>
+    <t>EMPRESA BRASILEIRA DE CORREIOS E TELÉGRAFOS</t>
+  </si>
+  <si>
+    <t>EXCELSIOR MED</t>
+  </si>
+  <si>
+    <t>FAPES</t>
+  </si>
+  <si>
+    <t>FIOCRUZ</t>
+  </si>
+  <si>
+    <t>FUNDAÇÃO ASSEFAZ</t>
+  </si>
+  <si>
+    <t>FUNDAÇÃO CESP</t>
+  </si>
+  <si>
+    <t>FUNDAÇÃO COPEL</t>
+  </si>
+  <si>
+    <t>FUNDAÇÃO SÃO FRANCISCO XAVIER</t>
+  </si>
+  <si>
+    <t>FUNDAÇÃO SAÚDE ITAÚ</t>
+  </si>
+  <si>
+    <t>FUNDAÇÃO WALDEMAR BARNSLEY PESSOA</t>
+  </si>
+  <si>
+    <t>FUNDAFFEMG</t>
+  </si>
+  <si>
+    <t>FUNSERVIR</t>
+  </si>
+  <si>
+    <t>FUSEX</t>
+  </si>
+  <si>
+    <t>GAMA SAÚDE</t>
+  </si>
+  <si>
+    <t>GAMEC</t>
+  </si>
+  <si>
+    <t>GBOEX</t>
+  </si>
+  <si>
+    <t>GEAP</t>
+  </si>
+  <si>
+    <t>GEBRAM SEGUROS</t>
+  </si>
+  <si>
+    <t>GOLDEN CROSS</t>
+  </si>
+  <si>
+    <t>GOOD LIFE</t>
+  </si>
+  <si>
+    <t>GREEN LINE</t>
+  </si>
+  <si>
+    <t>GRUPO CVRD</t>
+  </si>
+  <si>
+    <t>GRUPO HOSPITALAR DO RIO DE JANEIRO</t>
+  </si>
+  <si>
+    <t>HAPVIDA</t>
+  </si>
+  <si>
+    <t>HIPALERJ</t>
+  </si>
+  <si>
+    <t>HOSPITALAR PLANO DE SAÚDE</t>
+  </si>
+  <si>
+    <t>IAMSPE</t>
+  </si>
+  <si>
+    <t>INB</t>
+  </si>
+  <si>
+    <t>INPAO DENTAL</t>
+  </si>
+  <si>
+    <t>INSTITUTO CURITIBA DE SAÚDE</t>
+  </si>
+  <si>
+    <t>INTERMÉDICA</t>
+  </si>
+  <si>
+    <t>INTERODONTO</t>
+  </si>
+  <si>
+    <t>IPALERJ SAÚDE</t>
+  </si>
+  <si>
+    <t>IPASGO</t>
+  </si>
+  <si>
+    <t>IPE SAÚDE</t>
+  </si>
+  <si>
+    <t>IRMANDADE DA SANTA CASA DA MISERICÓRDIA</t>
+  </si>
+  <si>
+    <t>JUDICEMED</t>
+  </si>
+  <si>
+    <t>JUSTIÇA FEDERAL</t>
+  </si>
+  <si>
+    <t>LIFE EMPRESARIAL SAÚDE</t>
+  </si>
+  <si>
+    <t>LINCX - SERVIÇOS DE SAÚDE</t>
+  </si>
+  <si>
+    <t>MARÍTIMA</t>
+  </si>
+  <si>
+    <t>MARKI ODONTO</t>
+  </si>
+  <si>
+    <t>MASTER LINE</t>
+  </si>
+  <si>
+    <t>MEDIAL SAÚDE</t>
+  </si>
+  <si>
+    <t>MEDILAR</t>
+  </si>
+  <si>
+    <t>MEDISERVICE</t>
+  </si>
+  <si>
+    <t>MEDPREV</t>
+  </si>
+  <si>
+    <t>MEDSÊNIOR</t>
+  </si>
+  <si>
+    <t>METLIFE DENTAL</t>
+  </si>
+  <si>
+    <t>METRUS</t>
+  </si>
+  <si>
+    <t>METRUS SAÚDE</t>
+  </si>
+  <si>
+    <t>MONDIAL ASSISTANCE</t>
+  </si>
+  <si>
+    <t>MÚTUA DOS MAGISTRADOS</t>
+  </si>
+  <si>
+    <t>NIPOMED</t>
+  </si>
+  <si>
+    <t>NOTRE DAME</t>
+  </si>
+  <si>
+    <t>OAB SAÚDE</t>
+  </si>
+  <si>
+    <t>ODONTO EMPRESAS</t>
+  </si>
+  <si>
+    <t>ODONTOGROUP</t>
+  </si>
+  <si>
+    <t>ODONTOPREV</t>
+  </si>
+  <si>
+    <t>OMINT</t>
+  </si>
+  <si>
+    <t>PAME</t>
+  </si>
+  <si>
+    <t>PAMHO</t>
+  </si>
+  <si>
+    <t>BANCO CENTRAL DO BRASIL</t>
+  </si>
+  <si>
+    <t>PETROBRAS MAS</t>
+  </si>
+  <si>
+    <t>PLAMER</t>
+  </si>
+  <si>
+    <t>PLAN ASSISTE</t>
+  </si>
+  <si>
+    <t>PLAN MINAS</t>
+  </si>
+  <si>
+    <t>PLANO DE ASSISTÊNCIA A SAÚDE</t>
+  </si>
+  <si>
+    <t>PLANSERV</t>
+  </si>
+  <si>
+    <t>PMMG</t>
+  </si>
+  <si>
+    <t>POLICLIN</t>
+  </si>
+  <si>
+    <t>PORTO SEGURO SAÚDE</t>
+  </si>
+  <si>
+    <t>PREVENT SENIOR</t>
+  </si>
+  <si>
+    <t>PRODESP</t>
+  </si>
+  <si>
+    <t>PROGRAMA DE ASSISTÊNCIA AOS MAGISTRADOS E SERVIDORES</t>
+  </si>
+  <si>
+    <t>PROMED</t>
+  </si>
+  <si>
+    <t>PRÓ-SAÚDE</t>
+  </si>
+  <si>
+    <t>RECIMED</t>
+  </si>
+  <si>
+    <t>SABESPREV</t>
+  </si>
+  <si>
+    <t>SALUTAR SAÚDE</t>
+  </si>
+  <si>
+    <t>SAMETRADE</t>
+  </si>
+  <si>
+    <t>SAMP</t>
+  </si>
+  <si>
+    <t>SANESAÚDE</t>
+  </si>
+  <si>
+    <t>SANTA HELENA</t>
+  </si>
+  <si>
+    <t>SANTAMALIA SAÚDE</t>
+  </si>
+  <si>
+    <t>SÃO BERNARDO SAÚDE</t>
+  </si>
+  <si>
+    <t>SÃO CRISTOVÃO SAÚDE</t>
+  </si>
+  <si>
+    <t>SÃO FRANCISCO ODONTOLOGIA</t>
+  </si>
+  <si>
+    <t>SÃO FRANCISCO VIDA</t>
+  </si>
+  <si>
+    <t>SÃO LUCAS</t>
+  </si>
+  <si>
+    <t>SAÚDE ASTTER</t>
+  </si>
+  <si>
+    <t>SAÚDE MAIOR</t>
+  </si>
+  <si>
+    <t>SC SAÚDE</t>
+  </si>
+  <si>
+    <t>SEGURO FAMILIAR</t>
+  </si>
+  <si>
+    <t>SEISA</t>
+  </si>
+  <si>
+    <t>SEMEG SAÚDE</t>
+  </si>
+  <si>
+    <t>SEPACO</t>
+  </si>
+  <si>
+    <t>SERPRAM</t>
+  </si>
+  <si>
+    <t>SIDESC</t>
+  </si>
+  <si>
+    <t>SIMPEEM</t>
+  </si>
+  <si>
+    <t>SINASA</t>
+  </si>
+  <si>
+    <t>SINDICATO DOS SERVIDORES PÚBLICOS</t>
+  </si>
+  <si>
+    <t>SINDILOJAS SAÚDE</t>
+  </si>
+  <si>
+    <t>SMILE SAÚDE</t>
+  </si>
+  <si>
+    <t>SOBAM</t>
+  </si>
+  <si>
+    <t>SOMED</t>
+  </si>
+  <si>
+    <t>SSI SAÚDE</t>
+  </si>
+  <si>
+    <t>SUL AMÉRICA SAÚDE</t>
+  </si>
+  <si>
+    <t>TEMPO SAÚDE</t>
+  </si>
+  <si>
+    <t>TRE SAÚDE</t>
+  </si>
+  <si>
+    <t>UNAFISCO</t>
+  </si>
+  <si>
+    <t>UNIBANCO SAÚDE</t>
+  </si>
+  <si>
+    <t>UNIMED BELÉM</t>
+  </si>
+  <si>
+    <t>UNIMED BH</t>
+  </si>
+  <si>
+    <t>UNIMED CAMPINAS</t>
+  </si>
+  <si>
+    <t>UNIMED CUIABÁ</t>
+  </si>
+  <si>
+    <t>UNIMED CURITIBA</t>
+  </si>
+  <si>
+    <t>UNIMED DE LONDRINA</t>
+  </si>
+  <si>
+    <t>UNIMED FLORIANÓPOLIS</t>
+  </si>
+  <si>
+    <t>UNIMED FORTALEZA</t>
+  </si>
+  <si>
+    <t>UNIMED GOIANIA</t>
+  </si>
+  <si>
+    <t>UNIMED JOÃO PESSOA</t>
+  </si>
+  <si>
+    <t>UNIMED LONDRINA</t>
+  </si>
+  <si>
+    <t>UNIMED MACEIÓ</t>
+  </si>
+  <si>
+    <t>UNIMED MANAUS</t>
+  </si>
+  <si>
+    <t>UNIMED MARINGÁ</t>
+  </si>
+  <si>
+    <t>UNIMED NATAL</t>
+  </si>
+  <si>
+    <t>UNIMED NORTE/NORDESTE</t>
+  </si>
+  <si>
+    <t>UNIMED ODONTO</t>
+  </si>
+  <si>
+    <t>UNIMED PAULISTANA</t>
+  </si>
+  <si>
+    <t>UNIMED PORTO ALEGRE</t>
+  </si>
+  <si>
+    <t>UNIMED RECIFE</t>
+  </si>
+  <si>
+    <t>UNIMED RIBEIRAO PRETO</t>
+  </si>
+  <si>
+    <t>UNIMED RIO</t>
+  </si>
+  <si>
+    <t>UNIMED SANTA CATARINA</t>
+  </si>
+  <si>
+    <t>UNIMED SÃO GONÇALO / NITERÓI</t>
+  </si>
+  <si>
+    <t>UNIMED SÃO JOSÉ DO RIO PRETO</t>
+  </si>
+  <si>
+    <t>UNIMED SAO JOSÉ DOS CAMPOS</t>
+  </si>
+  <si>
+    <t>UNIMED SÃO PAULO</t>
+  </si>
+  <si>
+    <t>UNIMED UBERLÂNDIA</t>
+  </si>
+  <si>
+    <t>UNIMED VITÓRIA</t>
+  </si>
+  <si>
+    <t>UNIODONTO</t>
+  </si>
+  <si>
+    <t>UNIPSICO</t>
+  </si>
+  <si>
+    <t>UNOESTE SAÚDE</t>
+  </si>
+  <si>
+    <t>UPPES</t>
+  </si>
+  <si>
+    <t>USISAÚDE</t>
+  </si>
+  <si>
+    <t>VALE SAÚDE</t>
+  </si>
+  <si>
+    <t>VICCENA</t>
+  </si>
+  <si>
+    <t>VITALLIS SAÚDE</t>
+  </si>
+  <si>
+    <t>VIVAMED SAÚDE</t>
+  </si>
+  <si>
+    <t>VOAM</t>
+  </si>
+  <si>
+    <t>AMEPE/CAMPE</t>
+  </si>
+  <si>
+    <t>FACHESF</t>
+  </si>
+  <si>
+    <t>FISCO SAÚDE</t>
+  </si>
+  <si>
+    <t>PROASA</t>
+  </si>
+  <si>
+    <t>SERPRO</t>
+  </si>
+  <si>
+    <t>TELOS</t>
+  </si>
+  <si>
+    <t>INFRAERO</t>
+  </si>
+  <si>
+    <t>COMPESA SAÚDE</t>
+  </si>
+  <si>
+    <t>ODONTO SYSTEM</t>
+  </si>
+  <si>
+    <t>CAPE SAÚDE</t>
+  </si>
+  <si>
+    <t>PROCURADORIA MILITAR</t>
+  </si>
+  <si>
+    <t>PROCURADORIA DA REPÚBLICA</t>
+  </si>
+  <si>
+    <t>PROCURADORIA DO TRABALHO</t>
+  </si>
+  <si>
+    <t>UNILIFE</t>
+  </si>
+  <si>
+    <t>SAÚDE RECIFE</t>
+  </si>
+  <si>
+    <t>SAÚDE CAIXA</t>
+  </si>
+  <si>
+    <t>SULAMÉRICA ODONTO</t>
+  </si>
+  <si>
+    <t>AMIL-SAÚDE EXCELSIOR</t>
+  </si>
+  <si>
+    <t>UNIMED INTERCÂMBIO (OUTRAS CIDADES)</t>
+  </si>
+  <si>
+    <t>COM SAÚDE</t>
+  </si>
+  <si>
+    <t>IRH</t>
+  </si>
+  <si>
+    <t>MARINHA</t>
+  </si>
+  <si>
+    <t>PETROBRÁS DISTRIBUIDORA</t>
+  </si>
+  <si>
+    <t>PETROBRÁS PETRÓLEO</t>
+  </si>
+  <si>
+    <t>FUNCEF</t>
+  </si>
+  <si>
+    <t>PLAMED</t>
+  </si>
+  <si>
+    <t>EAS</t>
   </si>
   <si>
     <t>Nome</t>
@@ -538,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A255" sqref="A56:XFD255"/>
+    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
+      <selection activeCell="H249" sqref="H249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>56</v>
+        <v>255</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -564,596 +1161,2796 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C55" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>58</v>
+      </c>
+      <c r="C58" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C87" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C88" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C93" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C94" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C95" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C96" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C97" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C98" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C99" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C102" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C103" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C105" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C109" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C110" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C111" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C113" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C114" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C115" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C116" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C117" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C118" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C119" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C120" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C121" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C122" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C123" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C124" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C125" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C127" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C128" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C129" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C130" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C131" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C132" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C133" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C134" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C135" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C136" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C137" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C138" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C139" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C140" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C141" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C142" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C143" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C144" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C145" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C146" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C147" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C148" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C149" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C150" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C151" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C152" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C153" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C154" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C155" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C156" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C157" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C158" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C159" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C160" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C161" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C162" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C163" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C164" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C165" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C166" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C167" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C168" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C169" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C170" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C171" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C172" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C173" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C174" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C175" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C176" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C177" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C178" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C179" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C180" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C181" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C182" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C183" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C184" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C185" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C186" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C187" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C188" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C189" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C190" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C191" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C192" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C193" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C194" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C195" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C196" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C197" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C198" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C199" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C200" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C201" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C202" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C203" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C204" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C205" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C206" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C207" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C208" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C209" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C210" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C211" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C212" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C213" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C214" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C215" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C216" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C217" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C218" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C219" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C220" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C221" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C222" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C223" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C224" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C225" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C226" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C227" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C228" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C229" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C230" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C231" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C232" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C233" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C234" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C235" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C236" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C237" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C238" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C239" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C240" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C241" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C242" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C243" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C244" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C245" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C246" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C247" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C248" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C249" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C250" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C251" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C252" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C253" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C254" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C255" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/main/bin/Debug/ArquivosDados/BuscaEspecialidade.xlsx
+++ b/main/bin/Debug/ArquivosDados/BuscaEspecialidade.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CEB625F6-B8EF-4CC6-A9FB-C16A58E72D66}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2E076F10-3E52-47C7-8246-4B87514924E3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17955" windowHeight="6915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="60">
   <si>
     <t>Tipo</t>
   </si>
@@ -187,6 +187,9 @@
     <t>CAPESESP</t>
   </si>
   <si>
+    <t>CARE PLUS</t>
+  </si>
+  <si>
     <t>Nome</t>
   </si>
   <si>
@@ -197,12 +200,6 @@
   </si>
   <si>
     <t>FALHA</t>
-  </si>
-  <si>
-    <t>semCadastro</t>
-  </si>
-  <si>
-    <t>NÃO EXISTE</t>
   </si>
 </sst>
 </file>
@@ -218,7 +215,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,12 +234,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -256,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -265,9 +256,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -552,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A255" sqref="A56:XFD255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,249 +556,249 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>59</v>
+      <c r="A2" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
         <v>58</v>
@@ -818,354 +806,354 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
